--- a/DATOS.xlsx
+++ b/DATOS.xlsx
@@ -5,140 +5,159 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RA303\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUPTC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="40">
-  <si>
-    <t>Género:</t>
-  </si>
-  <si>
-    <t>Edad:</t>
-  </si>
-  <si>
-    <t>Carrera:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">Género </t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Carrera</t>
   </si>
   <si>
     <t xml:space="preserve">Semestre </t>
   </si>
   <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Contaduría Pública</t>
+  </si>
+  <si>
+    <t>Decimo</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>Frecuentemente</t>
+  </si>
+  <si>
+    <t>El sistema se cae o no carga</t>
+  </si>
+  <si>
+    <t>Durante las inscripciones</t>
+  </si>
+  <si>
     <t>Femenino</t>
   </si>
   <si>
-    <t>Licenciatura en Matemáticas</t>
-  </si>
-  <si>
-    <t>Mejor comprensión de un tema, Identificar dificultades a tiempo</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t xml:space="preserve">Lic. Matemáticas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo </t>
+  </si>
+  <si>
+    <t>Solo cuando hay actividades o inscripciones</t>
+  </si>
+  <si>
+    <t>A veces</t>
+  </si>
+  <si>
+    <t>Lentitud o carga lenta</t>
+  </si>
+  <si>
+    <t>Al revisar notas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lic. Matemáticas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tercero </t>
+  </si>
+  <si>
+    <t>Problemas con el navegador o celular</t>
+  </si>
+  <si>
+    <t>Al cargar o enviar tareas</t>
+  </si>
+  <si>
+    <t>No puedo ingresar con mi usuario-contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lic. Filosofía </t>
+  </si>
+  <si>
+    <t>Varias veces por semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química </t>
+  </si>
+  <si>
+    <t>Sexto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contaduría Pública </t>
+  </si>
+  <si>
+    <t>Rara vez</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>Alto</t>
-  </si>
-  <si>
-    <t>Mejor comprensión de un tema</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenciatura en Matemáticas </t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Identificar dificultades a tiempo</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artes Plásticas y Visuales </t>
-  </si>
-  <si>
-    <t>Mejor rendimiento académico, Mejor comprensión de un tema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenciatura en Lenguas extranjeras </t>
-  </si>
-  <si>
-    <t>Mejor rendimiento académico</t>
-  </si>
-  <si>
-    <t>Mejor rendimiento académico, Mejor comprensión de un tema, Identificar dificultades a tiempo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenciatura en Psicopedagogía </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Química </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitectura </t>
-  </si>
-  <si>
-    <t>Ingeniería de Sistemas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingeniería Agronómica </t>
-  </si>
-  <si>
-    <t>Economia</t>
-  </si>
-  <si>
-    <t>Finanzas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Educación Infantil  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantidad Tutorías </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compañeros Tutorías </t>
-  </si>
-  <si>
-    <t>Horas Semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventajas </t>
-  </si>
-  <si>
-    <t>Dudas</t>
-  </si>
-  <si>
-    <t>Disponibilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compromiso Tutor </t>
-  </si>
-  <si>
-    <t>Dudas Solucionadas</t>
+    <t>A veces, Rara vez</t>
+  </si>
+  <si>
+    <t>Segundo</t>
+  </si>
+  <si>
+    <t>Lic. Matematicas</t>
+  </si>
+  <si>
+    <t>No he tenido problemas</t>
+  </si>
+  <si>
+    <t>Varias veces por semana, Solo cuando hay actividades o inscripciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing. Electromecánica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing. Ambiental </t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Problemas</t>
+  </si>
+  <si>
+    <t>Lentitud</t>
+  </si>
+  <si>
+    <t>Caer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frecuencia </t>
+  </si>
+  <si>
+    <t>Fallas</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Momento</t>
+  </si>
+  <si>
+    <t>Lic. Filosofía</t>
   </si>
 </sst>
 </file>
@@ -267,13 +286,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -282,13 +301,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -299,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -317,6 +336,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -373,21 +404,957 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Respuestas de formulario 1'!$A$1:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>Género </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Masculino</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Femenino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuestas de formulario 1'!$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1E9-4056-94FA-948D7803240F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="387151855"/>
+        <c:axId val="387149359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387151855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387149359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387149359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387151855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8651875" cy="6283854"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:L35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:L36">
   <tableColumns count="12">
-    <tableColumn id="2" name="Género:"/>
-    <tableColumn id="3" name="Edad:"/>
-    <tableColumn id="4" name="Carrera:"/>
+    <tableColumn id="2" name="Género "/>
+    <tableColumn id="3" name="Edad"/>
+    <tableColumn id="4" name="Carrera"/>
     <tableColumn id="5" name="Semestre "/>
-    <tableColumn id="6" name="Cantidad Tutorías "/>
-    <tableColumn id="7" name="Compañeros Tutorías "/>
-    <tableColumn id="8" name="Dudas Solucionadas"/>
-    <tableColumn id="9" name="Horas Semestre"/>
-    <tableColumn id="10" name="Ventajas "/>
-    <tableColumn id="11" name="Dudas"/>
-    <tableColumn id="12" name="Disponibilidad"/>
-    <tableColumn id="13" name="Compromiso Tutor "/>
+    <tableColumn id="6" name="Uso"/>
+    <tableColumn id="7" name="Problemas"/>
+    <tableColumn id="8" name="Lentitud"/>
+    <tableColumn id="9" name="Caer"/>
+    <tableColumn id="10" name="Frecuencia "/>
+    <tableColumn id="11" name="Fallas"/>
+    <tableColumn id="12" name="Tipo"/>
+    <tableColumn id="13" name="Momento"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -594,21 +1561,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" customWidth="1"/>
-    <col min="7" max="12" width="37.5703125" customWidth="1"/>
+    <col min="1" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="11" width="37.5703125" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" customWidth="1"/>
     <col min="13" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,28 +1590,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -655,75 +1619,75 @@
         <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3">
-        <v>2</v>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
       <c r="F3" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -731,265 +1695,265 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E4" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
       <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="K6" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>3</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -997,37 +1961,37 @@
         <v>4</v>
       </c>
       <c r="B11" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1035,113 +1999,113 @@
         <v>4</v>
       </c>
       <c r="B12" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
       <c r="H12" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5">
         <v>3</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>6</v>
-      </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1152,34 +2116,34 @@
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5">
+        <v>14</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1190,34 +2154,34 @@
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1225,113 +2189,113 @@
         <v>4</v>
       </c>
       <c r="B17" s="5">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>6</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>7</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F19" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H19" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1339,37 +2303,37 @@
         <v>4</v>
       </c>
       <c r="B20" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1377,37 +2341,37 @@
         <v>4</v>
       </c>
       <c r="B21" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="5">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5</v>
-      </c>
-      <c r="G21" s="5">
-        <v>6</v>
-      </c>
-      <c r="H21" s="5">
-        <v>6</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1415,531 +2379,569 @@
         <v>4</v>
       </c>
       <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B23" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E23" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3">
         <v>5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>10</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B25" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="5">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H25" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3">
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B27" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5">
-        <v>4</v>
-      </c>
-      <c r="H27" s="5">
-        <v>2</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="K27" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3">
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3">
         <v>5</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5">
         <v>18</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E29" s="5">
         <v>5</v>
       </c>
       <c r="F29" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29" s="5">
         <v>2</v>
       </c>
       <c r="H29" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3">
         <v>17</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="3">
         <v>2</v>
       </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
       <c r="F30" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G30" s="3">
         <v>5</v>
       </c>
       <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3</v>
+      </c>
+      <c r="G31" s="7">
+        <v>6</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="9">
+        <v>20</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="9">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4</v>
+      </c>
+      <c r="H32" s="9">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7">
+        <v>17</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="7">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7">
+        <v>5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="L33" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="5">
-        <v>25</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="5">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="B34" s="9">
+        <v>18</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="9">
+        <v>5</v>
+      </c>
+      <c r="F34" s="9">
         <v>2</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G34" s="9">
         <v>5</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>2</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="6" t="s">
+      <c r="H34" s="9">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3">
-        <v>42</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="5">
-        <v>18</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5">
-        <v>5</v>
-      </c>
-      <c r="F33" s="5">
-        <v>18</v>
-      </c>
-      <c r="G33" s="5">
-        <v>8</v>
-      </c>
-      <c r="H33" s="5">
-        <v>10</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3">
-        <v>20</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3">
-        <v>15</v>
-      </c>
-      <c r="G34" s="3">
-        <v>8</v>
-      </c>
-      <c r="H34" s="3">
-        <v>10</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>9</v>
+      <c r="L34" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" s="7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="7">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E35" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F35" s="7">
         <v>5</v>
       </c>
       <c r="G35" s="7">
+        <v>3</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="7">
-        <v>2</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="K35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="8" t="s">
-        <v>9</v>
+      <c r="B36" s="11">
+        <v>18</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="11">
+        <v>5</v>
+      </c>
+      <c r="F36" s="11">
+        <v>8</v>
+      </c>
+      <c r="G36" s="11">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11">
+        <v>3</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
